--- a/Backend/data/contact_us.xlsx
+++ b/Backend/data/contact_us.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A52FA9-3656-43D7-A9A9-FAD641CB5BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500"/>
   </bookViews>
   <sheets>
-    <sheet name="contact_us" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="contact_us" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -42,19 +41,22 @@
   </si>
   <si>
     <t>I want to buty an artwork</t>
+  </si>
+  <si>
+    <t>I want to uy an artwork from Artify</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -417,14 +419,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.35" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="19.90625" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
@@ -432,7 +434,7 @@
     <col min="4" max="4" width="39.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -446,7 +448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -460,7 +462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -472,10 +474,24 @@
       </c>
       <c r="D3" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/Backend/data/contact_us.xlsx
+++ b/Backend/data/contact_us.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -44,6 +44,15 @@
   </si>
   <si>
     <t>I want to uy an artwork from Artify</t>
+  </si>
+  <si>
+    <t>shankar@gmail.com</t>
+  </si>
+  <si>
+    <t>To Purchase artworks</t>
+  </si>
+  <si>
+    <t>i am interested in purchasing an artwork</t>
   </si>
 </sst>
 </file>
@@ -420,7 +429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="D15" sqref="D15"/>
@@ -490,6 +499,20 @@
         <v>9</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/Backend/data/contact_us.xlsx
+++ b/Backend/data/contact_us.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>i am interested in purchasing an artwork</t>
+  </si>
+  <si>
+    <t>I want to buy an artwork</t>
   </si>
 </sst>
 </file>
@@ -429,7 +432,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="D15" sqref="D15"/>
@@ -513,6 +516,20 @@
         <v>12</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
